--- a/Código/padrões de qualidade.xlsx
+++ b/Código/padrões de qualidade.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thainá\Dropbox\Disciplinas\8° período\Introdução à Ciência de Dados\Atividades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thainá\Dropbox\Disciplinas\8° período\Introdução à Ciência de Dados\Atividades\Banco de dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -127,14 +127,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,7 +419,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,10 +500,10 @@
       <c r="K2" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -529,13 +530,13 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="4">
         <v>1</v>
       </c>
-      <c r="J3" s="2">
-        <v>10</v>
-      </c>
-      <c r="K3" s="3">
+      <c r="J3" s="4">
+        <v>10</v>
+      </c>
+      <c r="K3" s="5">
         <v>9.5</v>
       </c>
     </row>
@@ -549,13 +550,13 @@
       <c r="G4">
         <v>200</v>
       </c>
-      <c r="I4" s="2">
-        <v>10</v>
-      </c>
-      <c r="J4" s="2">
+      <c r="I4" s="4">
+        <v>10</v>
+      </c>
+      <c r="J4" s="4">
         <v>90</v>
       </c>
-      <c r="K4" s="3"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -564,10 +565,11 @@
       <c r="C5" s="1">
         <v>700</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="4">
         <v>1</v>
       </c>
-      <c r="K5" s="3"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -582,13 +584,13 @@
       <c r="G6">
         <v>800</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="4">
         <v>1</v>
       </c>
-      <c r="J6" s="2">
-        <v>10</v>
-      </c>
-      <c r="K6" s="3"/>
+      <c r="J6" s="4">
+        <v>10</v>
+      </c>
+      <c r="K6" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Código/padrões de qualidade.xlsx
+++ b/Código/padrões de qualidade.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thainá\Dropbox\Disciplinas\8° período\Introdução à Ciência de Dados\Atividades\Banco de dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thainá\Dropbox\Disciplinas\8° período\Introdução à Ciência de Dados\meu\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -62,9 +62,6 @@
     <t>Cor</t>
   </si>
   <si>
-    <t>Turb</t>
-  </si>
-  <si>
     <t>UFC/100mL</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>E. Coli</t>
+  </si>
+  <si>
+    <t>Turbidez</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,16 +448,16 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
         <v>10</v>
@@ -483,19 +483,19 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
       </c>
       <c r="K2" t="s">
         <v>7</v>
